--- a/home/hafsa-report/htdocs/report.hafsa.de/akademi/xlsx/telcB22405.xlsx
+++ b/home/hafsa-report/htdocs/report.hafsa.de/akademi/xlsx/telcB22405.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -471,45 +471,92 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>Budak</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Esma Nur</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>02-06-1998</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Sisli</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>011</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Frau</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>Turkey</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>Mülheim an der Ruhr</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
           <t>Sabu</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B3" t="inlineStr">
         <is>
           <t>Eldho</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="C3" t="inlineStr">
         <is>
           <t>17-12-2001</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="D3" t="inlineStr">
         <is>
           <t>Sulthan bathery</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>000</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>Herr</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>India</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>Wadersloh</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr">
+      <c r="I3" t="inlineStr">
         <is>
           <t>Germany</t>
         </is>

--- a/home/hafsa-report/htdocs/report.hafsa.de/akademi/xlsx/telcB22405.xlsx
+++ b/home/hafsa-report/htdocs/report.hafsa.de/akademi/xlsx/telcB22405.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -471,27 +471,27 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Budak</t>
+          <t>Shoghi</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Esma Nur</t>
+          <t>Ronak</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>02-06-1998</t>
+          <t>09.08.1994</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Sisli</t>
+          <t>Teheran, Iran</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>011</t>
+          <t>000</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -501,12 +501,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Turkey</t>
+          <t>Iran</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Mülheim an der Ruhr</t>
+          <t>Bochum</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -518,45 +518,92 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>Budak</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Esma Nur</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>02-06-1998</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Sisli</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>011</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Frau</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Turkey</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Mülheim an der Ruhr</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
           <t>Sabu</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="B4" t="inlineStr">
         <is>
           <t>Eldho</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="C4" t="inlineStr">
         <is>
           <t>17-12-2001</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="D4" t="inlineStr">
         <is>
           <t>Sulthan bathery</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>000</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>Herr</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>India</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
+      <c r="H4" t="inlineStr">
         <is>
           <t>Wadersloh</t>
         </is>
       </c>
-      <c r="I3" t="inlineStr">
+      <c r="I4" t="inlineStr">
         <is>
           <t>Germany</t>
         </is>

--- a/home/hafsa-report/htdocs/report.hafsa.de/akademi/xlsx/telcB22405.xlsx
+++ b/home/hafsa-report/htdocs/report.hafsa.de/akademi/xlsx/telcB22405.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -471,22 +471,22 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Shoghi</t>
+          <t>Laloshi</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Ronak</t>
+          <t>Elca</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>09.08.1994</t>
+          <t>11-12-1998</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Teheran, Iran</t>
+          <t>Elbasan</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -501,12 +501,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Iran</t>
+          <t>Albania</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Bochum</t>
+          <t>Dortmund</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -518,27 +518,27 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Budak</t>
+          <t>Shoghi</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Esma Nur</t>
+          <t>Ronak</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>02-06-1998</t>
+          <t>09.08.1994</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Sisli</t>
+          <t>Teheran, Iran</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>011</t>
+          <t>000</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -548,12 +548,12 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Turkey</t>
+          <t>Iran</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Mülheim an der Ruhr</t>
+          <t>Bochum</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -565,45 +565,92 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
+          <t>Budak</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Esma Nur</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>02-06-1998</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Sisli</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>011</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Frau</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Turkey</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Mülheim an der Ruhr</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
           <t>Sabu</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="B5" t="inlineStr">
         <is>
           <t>Eldho</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C5" t="inlineStr">
         <is>
           <t>17-12-2001</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>Sulthan bathery</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>000</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>Herr</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>India</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
+      <c r="H5" t="inlineStr">
         <is>
           <t>Wadersloh</t>
         </is>
       </c>
-      <c r="I4" t="inlineStr">
+      <c r="I5" t="inlineStr">
         <is>
           <t>Germany</t>
         </is>

--- a/home/hafsa-report/htdocs/report.hafsa.de/akademi/xlsx/telcB22405.xlsx
+++ b/home/hafsa-report/htdocs/report.hafsa.de/akademi/xlsx/telcB22405.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I5"/>
+  <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -471,22 +471,22 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Laloshi</t>
+          <t>Tanzim</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Elca</t>
+          <t>Md Mohin Uddin</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>11-12-1998</t>
+          <t>08-10-1995</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Elbasan</t>
+          <t>Noakhali</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -496,12 +496,12 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Frau</t>
+          <t>Herr</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Albania</t>
+          <t>Bangladesh</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
@@ -518,22 +518,22 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Shoghi</t>
+          <t>Laloshi</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Ronak</t>
+          <t>Elca</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>09.08.1994</t>
+          <t>11-12-1998</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Teheran, Iran</t>
+          <t>Elbasan</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -548,12 +548,12 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Iran</t>
+          <t>Albania</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Bochum</t>
+          <t>Dortmund</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -565,27 +565,27 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Budak</t>
+          <t>Shoghi</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Esma Nur</t>
+          <t>Ronak</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>02-06-1998</t>
+          <t>09.08.1994</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Sisli</t>
+          <t>Teheran, Iran</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>011</t>
+          <t>000</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -595,12 +595,12 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Turkey</t>
+          <t>Iran</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Mülheim an der Ruhr</t>
+          <t>Bochum</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -612,45 +612,92 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
+          <t>Budak</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Esma Nur</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>02-06-1998</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Sisli</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>011</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Frau</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Turkey</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Mülheim an der Ruhr</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
           <t>Sabu</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="B6" t="inlineStr">
         <is>
           <t>Eldho</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C6" t="inlineStr">
         <is>
           <t>17-12-2001</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>Sulthan bathery</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>000</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>Herr</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>India</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
+      <c r="H6" t="inlineStr">
         <is>
           <t>Wadersloh</t>
         </is>
       </c>
-      <c r="I5" t="inlineStr">
+      <c r="I6" t="inlineStr">
         <is>
           <t>Germany</t>
         </is>

--- a/home/hafsa-report/htdocs/report.hafsa.de/akademi/xlsx/telcB22405.xlsx
+++ b/home/hafsa-report/htdocs/report.hafsa.de/akademi/xlsx/telcB22405.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I6"/>
+  <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -471,42 +471,42 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Tanzim</t>
+          <t>Metin</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Md Mohin Uddin</t>
+          <t>Ülker</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>08-10-1995</t>
+          <t>01-07-1982</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Noakhali</t>
+          <t>Yozgat</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>000</t>
+          <t>011</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Herr</t>
+          <t>Frau</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Bangladesh</t>
+          <t>Turkey</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Dortmund</t>
+          <t>Hanau</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -518,22 +518,22 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Laloshi</t>
+          <t>Tanzim</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Elca</t>
+          <t>Md Mohin Uddin</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>11-12-1998</t>
+          <t>08-10-1995</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Elbasan</t>
+          <t>Noakhali</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -543,12 +543,12 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Frau</t>
+          <t>Herr</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Albania</t>
+          <t>Bangladesh</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -565,22 +565,22 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Shoghi</t>
+          <t>Laloshi</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Ronak</t>
+          <t>Elca</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>09.08.1994</t>
+          <t>11-12-1998</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Teheran, Iran</t>
+          <t>Elbasan</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -595,12 +595,12 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Iran</t>
+          <t>Albania</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Bochum</t>
+          <t>Dortmund</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -612,27 +612,27 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Budak</t>
+          <t>Shoghi</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Esma Nur</t>
+          <t>Ronak</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>02-06-1998</t>
+          <t>09.08.1994</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Sisli</t>
+          <t>Teheran, Iran</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>011</t>
+          <t>000</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -642,12 +642,12 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Turkey</t>
+          <t>Iran</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Mülheim an der Ruhr</t>
+          <t>Bochum</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -659,45 +659,92 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
+          <t>Budak</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Esma Nur</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>02-06-1998</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Sisli</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>011</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Frau</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Turkey</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Mülheim an der Ruhr</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
           <t>Sabu</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="B7" t="inlineStr">
         <is>
           <t>Eldho</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="C7" t="inlineStr">
         <is>
           <t>17-12-2001</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>Sulthan bathery</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>000</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>Herr</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="G7" t="inlineStr">
         <is>
           <t>India</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
+      <c r="H7" t="inlineStr">
         <is>
           <t>Wadersloh</t>
         </is>
       </c>
-      <c r="I6" t="inlineStr">
+      <c r="I7" t="inlineStr">
         <is>
           <t>Germany</t>
         </is>

--- a/home/hafsa-report/htdocs/report.hafsa.de/akademi/xlsx/telcB22405.xlsx
+++ b/home/hafsa-report/htdocs/report.hafsa.de/akademi/xlsx/telcB22405.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I7"/>
+  <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,44 +469,14 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Metin</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Ülker</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>01-07-1982</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>Yozgat</t>
-        </is>
-      </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>011</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>Frau</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>Turkey</t>
+          <t>000</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Hanau</t>
+          <t>Marienheide</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -518,42 +488,42 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Tanzim</t>
+          <t>Metin</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Md Mohin Uddin</t>
+          <t>Ülker</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>08-10-1995</t>
+          <t>01-07-1982</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Noakhali</t>
+          <t>Yozgat</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>000</t>
+          <t>011</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Herr</t>
+          <t>Frau</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Bangladesh</t>
+          <t>Turkey</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Dortmund</t>
+          <t>Hanau</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -565,22 +535,22 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Laloshi</t>
+          <t>Tanzim</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Elca</t>
+          <t>Md Mohin Uddin</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>11-12-1998</t>
+          <t>08-10-1995</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Elbasan</t>
+          <t>Noakhali</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -590,12 +560,12 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Frau</t>
+          <t>Herr</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Albania</t>
+          <t>Bangladesh</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -612,22 +582,22 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Shoghi</t>
+          <t>Laloshi</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Ronak</t>
+          <t>Elca</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>09.08.1994</t>
+          <t>11-12-1998</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Teheran, Iran</t>
+          <t>Elbasan</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -642,12 +612,12 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Iran</t>
+          <t>Albania</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Bochum</t>
+          <t>Dortmund</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -659,27 +629,27 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Budak</t>
+          <t>Shoghi</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Esma Nur</t>
+          <t>Ronak</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>02-06-1998</t>
+          <t>09.08.1994</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Sisli</t>
+          <t>Teheran, Iran</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>011</t>
+          <t>000</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -689,12 +659,12 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Turkey</t>
+          <t>Iran</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Mülheim an der Ruhr</t>
+          <t>Bochum</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -706,45 +676,92 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
+          <t>Budak</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Esma Nur</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>02-06-1998</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Sisli</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>011</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Frau</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Turkey</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Mülheim an der Ruhr</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
           <t>Sabu</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="B8" t="inlineStr">
         <is>
           <t>Eldho</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="C8" t="inlineStr">
         <is>
           <t>17-12-2001</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>Sulthan bathery</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>000</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>Herr</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="G8" t="inlineStr">
         <is>
           <t>India</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
+      <c r="H8" t="inlineStr">
         <is>
           <t>Wadersloh</t>
         </is>
       </c>
-      <c r="I7" t="inlineStr">
+      <c r="I8" t="inlineStr">
         <is>
           <t>Germany</t>
         </is>

--- a/home/hafsa-report/htdocs/report.hafsa.de/akademi/xlsx/telcB22405.xlsx
+++ b/home/hafsa-report/htdocs/report.hafsa.de/akademi/xlsx/telcB22405.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I8"/>
+  <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,14 +469,44 @@
       </c>
     </row>
     <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Düz</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Murat</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>03-03-1993</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Diyarbakir</t>
+        </is>
+      </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>000</t>
+          <t>011</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Herr</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>Turkey</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Marienheide</t>
+          <t>Hanau</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -486,44 +516,14 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Metin</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Ülker</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>01-07-1982</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>Yozgat</t>
-        </is>
-      </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>011</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Frau</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>Turkey</t>
+          <t>000</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Hanau</t>
+          <t>Marienheide</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -535,42 +535,42 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Tanzim</t>
+          <t>Metin</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Md Mohin Uddin</t>
+          <t>Ülker</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>08-10-1995</t>
+          <t>01-07-1982</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Noakhali</t>
+          <t>Yozgat</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>000</t>
+          <t>011</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Herr</t>
+          <t>Frau</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Bangladesh</t>
+          <t>Turkey</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Dortmund</t>
+          <t>Hanau</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -582,22 +582,22 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Laloshi</t>
+          <t>Tanzim</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Elca</t>
+          <t>Md Mohin Uddin</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>11-12-1998</t>
+          <t>08-10-1995</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Elbasan</t>
+          <t>Noakhali</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -607,12 +607,12 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Frau</t>
+          <t>Herr</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Albania</t>
+          <t>Bangladesh</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
@@ -629,22 +629,22 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Shoghi</t>
+          <t>Laloshi</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Ronak</t>
+          <t>Elca</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>09.08.1994</t>
+          <t>11-12-1998</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Teheran, Iran</t>
+          <t>Elbasan</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -659,12 +659,12 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Iran</t>
+          <t>Albania</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Bochum</t>
+          <t>Dortmund</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -676,27 +676,27 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Budak</t>
+          <t>Shoghi</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Esma Nur</t>
+          <t>Ronak</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>02-06-1998</t>
+          <t>09.08.1994</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Sisli</t>
+          <t>Teheran, Iran</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>011</t>
+          <t>000</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -706,12 +706,12 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Turkey</t>
+          <t>Iran</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Mülheim an der Ruhr</t>
+          <t>Bochum</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -723,45 +723,92 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
+          <t>Budak</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Esma Nur</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>02-06-1998</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Sisli</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>011</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Frau</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Turkey</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Mülheim an der Ruhr</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
           <t>Sabu</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="B9" t="inlineStr">
         <is>
           <t>Eldho</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="C9" t="inlineStr">
         <is>
           <t>17-12-2001</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>Sulthan bathery</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>000</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>Herr</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
+      <c r="G9" t="inlineStr">
         <is>
           <t>India</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
+      <c r="H9" t="inlineStr">
         <is>
           <t>Wadersloh</t>
         </is>
       </c>
-      <c r="I8" t="inlineStr">
+      <c r="I9" t="inlineStr">
         <is>
           <t>Germany</t>
         </is>
